--- a/Internship.xlsx
+++ b/Internship.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="195">
   <si>
     <t>Title</t>
   </si>
@@ -31,84 +31,333 @@
     <t>Posted Time</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://internshala.comN/A</t>
+  </si>
+  <si>
+    <t>iOS App Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-noida-at-w3dev1706774614</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>₹ 11,000-13,000 /month</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Android App Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-w3dev1706774552</t>
+  </si>
+  <si>
+    <t>₹ 5,000-7,000 /month</t>
+  </si>
+  <si>
+    <t>AWS DevOps Engineer</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/aws-devops-engineer-internship-in-delhi-at-agentinsights1706766575</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>₹ 6,000-8,000 /month</t>
+  </si>
+  <si>
+    <t>1 day ago</t>
+  </si>
+  <si>
+    <t>Flutter Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/flutter-development-internship-in-multiple-locations-at-antino-labs-private-limited1706779840</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>₹ 15,000 /month</t>
+  </si>
+  <si>
+    <t>PHP Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/php-development-internship-in-gurgaon-at-antino-labs-private-limited1706627680</t>
+  </si>
+  <si>
+    <t>2 days ago</t>
+  </si>
+  <si>
+    <t>WordPress Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/wordpress-development-internship-in-delhi-at-9heaven1706674503</t>
+  </si>
+  <si>
+    <t>₹ 5,000 /month</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-gurgaon-at-antino-labs-private-limited1705983796</t>
+  </si>
+  <si>
+    <t>1 week ago</t>
+  </si>
+  <si>
+    <t>Software Testing &amp; Quality Assurance</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-testing-quality-assurance-internship-in-noida-at-w3dev1706181645</t>
+  </si>
+  <si>
+    <t>₹ 2,500-5,000 /month</t>
+  </si>
+  <si>
+    <t>7 days ago</t>
+  </si>
+  <si>
+    <t>QA Testing</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/qa-testing-internship-in-gurgaon-at-syansoft-technologies-private-limited1706854574</t>
+  </si>
+  <si>
+    <t>₹ 10,000 /month</t>
+  </si>
+  <si>
+    <t>Just now</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-sukrit-varma1706846031</t>
+  </si>
+  <si>
+    <t>Desktop Support Engineer Intern</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/desktop-support-engineer-intern-internship-in-delhi-at-s-p-solutions-point-private-limited1706792876</t>
+  </si>
+  <si>
+    <t>₹ 8,000 /month</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-development-internship-in-noida-at-crunchy-fashion-private-limited1706789443</t>
+  </si>
+  <si>
+    <t>₹ 8,000-12,000 /month</t>
+  </si>
+  <si>
+    <t>Mobile App Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-multiple-locations-at-buddha-education-association-incorporation1706789374</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>₹ 30,000 /month</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-multiple-locations-at-sbnri-simplifying-banking-for-nris1706779873</t>
+  </si>
+  <si>
+    <t>₹ 10,000-15,000 /month</t>
+  </si>
+  <si>
+    <t>Website Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-website-development-internship-in-delhi-at-british-lingua1706785560</t>
+  </si>
+  <si>
+    <t>₹ 6,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-web-development-internship-in-multiple-locations-at-buddha-education-association-incorporation1706785521</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>₹ 20,000 /month</t>
+  </si>
+  <si>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-doodle-over-poodle-pvt-ltd1706776442</t>
+  </si>
+  <si>
+    <t>₹ 8,000-10,000 /month</t>
+  </si>
+  <si>
+    <t>Python Automation</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/python-automation-internship-in-gurgaon-at-natwest-group1706779337</t>
+  </si>
+  <si>
+    <t>₹ 45,000 /month</t>
+  </si>
+  <si>
+    <t>QA Engineering</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/qa-engineering-internship-in-delhi-at-ayurveda-house-private-limited1706776015</t>
+  </si>
+  <si>
+    <t>₹ 10,000-12,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-delhi-at-growagro1706768576</t>
+  </si>
+  <si>
+    <t>₹ 10,000-20,000 /month</t>
+  </si>
+  <si>
+    <t>JavaScript Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/javascript-development-internship-in-noida-at-w3dev1706774657</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-delhi-at-myupchar1706764437</t>
+  </si>
+  <si>
+    <t>Reactjs Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/reactjs-development-internship-in-delhi-at-one-card-solution-pvt-limited1706768308</t>
+  </si>
+  <si>
+    <t>₹ 6,000-10,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-wordpress-development-internship-in-delhi-at-anjesh-find-nearbest-professionals-llp1706756040</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-javascript-development-internship-in-noida-at-tynatech-ingenious-private-limited1706721681</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-watrana-traction-private-limited1706704437</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-development-internship-in-delhi-at-indika-ai-private-limited1706684265</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-cyber-security-internship-in-multiple-locations-at-prime-infoserv-llp1706683141</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Node.js Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/nodejs-development-internship-in-gurgaon-at-warewe-consultancy-private-limited1706680284</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-gurgaon-at-antino-labs-private-limited1706678320</t>
+  </si>
+  <si>
+    <t>Nodejs Typescript Developer</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/nodejs-typescript-developer-internship-in-delhi-at-arakooai1706648661</t>
+  </si>
+  <si>
+    <t>₹ 5,000-10,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/aws-devops-engineer-internship-in-gurgaon-at-antino-labs-private-limited1706627441</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-delhi-at-oclamecom1706600908</t>
+  </si>
+  <si>
+    <t>₹ 2,000 /month</t>
+  </si>
+  <si>
+    <t>Game Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-game-development-internship-in-multiple-locations-at-youth-buzz-educom-llp1706589576</t>
+  </si>
+  <si>
+    <t>₹ 3,500-6,000 /month</t>
+  </si>
+  <si>
+    <t>3 days ago</t>
+  </si>
+  <si>
+    <t>AI Python Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/ai-python-development-internship-in-delhi-at-intellisqr1706592682</t>
+  </si>
+  <si>
+    <t>Python/Django Back-end</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-python-django-back-end-internship-in-noida-at-negbuy1706591460</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-adg-online-solutions-private-limited1706516353</t>
+  </si>
+  <si>
+    <t>₹ 10,000-18,000 /month</t>
+  </si>
+  <si>
+    <t>Backend Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/backend-development-internship-in-gurgaon-at-wijungle-by-httpcart1706501690</t>
+  </si>
+  <si>
+    <t>₹ 30,000-40,000 /month</t>
+  </si>
+  <si>
+    <t>4 days ago</t>
+  </si>
+  <si>
     <t>C++ Development</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/c-development-internship-in-gurgaon-at-wijungle-by-httpcart1706501460</t>
   </si>
   <si>
-    <t>Gurgaon</t>
-  </si>
-  <si>
-    <t>₹ 30,000-40,000 /month</t>
-  </si>
-  <si>
-    <t>6 Months</t>
-  </si>
-  <si>
-    <t>Few hours ago</t>
-  </si>
-  <si>
-    <t>Backend Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/backend-development-internship-in-gurgaon-at-wijungle-by-httpcart1706501690</t>
-  </si>
-  <si>
-    <t>iOS App Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-gurgaon-at-antino-labs-private-limited1705983796</t>
-  </si>
-  <si>
-    <t>₹ 15,000 /month</t>
-  </si>
-  <si>
-    <t>6 days ago</t>
-  </si>
-  <si>
-    <t>Software Testing &amp; Quality Assurance</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-testing-quality-assurance-internship-in-noida-at-w3dev1706181645</t>
-  </si>
-  <si>
-    <t>Noida</t>
-  </si>
-  <si>
-    <t>₹ 2,500-5,000 /month</t>
-  </si>
-  <si>
-    <t>4 days ago</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/backend-development-internship-in-noida-at-redcliffe-labs1706528348</t>
-  </si>
-  <si>
-    <t>PHP Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-adg-online-solutions-private-limited1706516353</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>₹ 10,000-18,000 /month</t>
-  </si>
-  <si>
     <t>Full Stack Development</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/full-stack-development-internship-in-multiple-locations-at-postfaym-technologies-private-limited1706183251</t>
   </si>
   <si>
-    <t>₹ 5,000 /month</t>
-  </si>
-  <si>
-    <t>3 Months</t>
-  </si>
-  <si>
     <t>Image Editor</t>
   </si>
   <si>
@@ -118,250 +367,157 @@
     <t>₹ 7,000 /month</t>
   </si>
   <si>
-    <t>Web Development</t>
-  </si>
-  <si>
     <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-eupheus-learning1706169292</t>
   </si>
   <si>
-    <t>₹ 10,000 /month</t>
-  </si>
-  <si>
-    <t>1 Month</t>
-  </si>
-  <si>
-    <t>Game Development</t>
-  </si>
-  <si>
     <t>https://internshala.com/internship/detail/part-time-game-development-internship-in-multiple-locations-at-mentorboxx1706167551</t>
   </si>
   <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Angular.js Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/angularjs-development-internship-in-gurgaon-at-vdoit-technologies-private-limited1706166443</t>
+  </si>
+  <si>
+    <t>Asp.net Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/aspnet-development-internship-in-multiple-locations-at-isourse1706158385</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-multiple-locations-at-intellisqr1706099893</t>
+  </si>
+  <si>
+    <t>₹ 12,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-wordpress-development-internship-in-delhi-at-405-gyp-aggregate-co1706084967</t>
+  </si>
+  <si>
+    <t>PHP &amp; Laravel Developers</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/php-laravel-developers-internship-in-multiple-locations-at-radiant-tech-solutions1706081395</t>
+  </si>
+  <si>
+    <t>Quality Analyst</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-delhi-at-kidswear-fabricators-private-limited1706079654</t>
+  </si>
+  <si>
+    <t>₹ 10,000 /month + Incentives</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-oxen-farm-solutions-private-limited1706009347</t>
+  </si>
+  <si>
+    <t>YouTube Anchor And Webinar Analytics</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/youtube-anchor-and-webinar-analytics-internship-in-multiple-locations-at-analytics-jobs1706012538</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence &amp; Machine Learning</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/artificial-intelligence-machine-learning-internship-in-gurgaon-at-natwest-group1706012450</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-gurgaon-at-factacyai1706005053</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-antino-labs-private-limited1706002367</t>
+  </si>
+  <si>
+    <t>.NET Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/net-development-internship-in-delhi-at-isourse1705994224</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/product-management-internship-in-delhi-at-stirring-minds1705990145</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-stirring-minds1705989855</t>
+  </si>
+  <si>
+    <t>Software Development Engineering (Web)</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-development-engineering-web-internship-in-gurgaon-at-internshala1705992252</t>
+  </si>
+  <si>
+    <t>₹ 18,000 /month</t>
+  </si>
+  <si>
+    <t>Software Development Engineering (Android)</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-development-engineering-android-internship-in-gurgaon-at-internshala1705992046</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/nodejs-development-internship-in-gurgaon-bangalore-at-antino-labs-private-limited1705991009</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-stirring-minds1705990557</t>
+  </si>
+  <si>
+    <t>₹ 7,000-8,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/wordpress-development-internship-in-delhi-at-stirring-minds1705989710</t>
+  </si>
+  <si>
+    <t>₹ 7,000-10,000 /month</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-testing-internship-in-delhi-at-iitm-pravartak1705984549</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-faith-app1705917808</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (AI)</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-part-time-job-internship-at-multiple-locations-in-avaari1705675076</t>
+  </si>
+  <si>
     <t>Raipur</t>
   </si>
   <si>
-    <t>₹ 20,000 /month</t>
-  </si>
-  <si>
-    <t>2 Months</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>https://internshala.comN/A</t>
-  </si>
-  <si>
-    <t>Angular.js Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/angularjs-development-internship-in-gurgaon-at-vdoit-technologies-private-limited1706166443</t>
-  </si>
-  <si>
-    <t>₹ 8,000 /month</t>
-  </si>
-  <si>
-    <t>Mobile App Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-gurgaon-at-postfaym-technologies-private-limited1706167107</t>
-  </si>
-  <si>
-    <t>Asp.net Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/aspnet-development-internship-in-multiple-locations-at-isourse1706158385</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-multiple-locations-at-intellisqr1706099893</t>
-  </si>
-  <si>
-    <t>₹ 12,000 /month</t>
-  </si>
-  <si>
-    <t>5 days ago</t>
-  </si>
-  <si>
-    <t>WordPress Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-wordpress-development-internship-in-delhi-at-405-gyp-aggregate-co1706084967</t>
-  </si>
-  <si>
-    <t>PHP &amp; Laravel Developers</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/php-laravel-developers-internship-in-multiple-locations-at-radiant-tech-solutions1706081395</t>
-  </si>
-  <si>
-    <t>₹ 2,000 /month</t>
-  </si>
-  <si>
-    <t>Quality Analyst</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-delhi-at-kidswear-fabricators-private-limited1706079654</t>
-  </si>
-  <si>
-    <t>₹ 10,000 /month + Incentives</t>
-  </si>
-  <si>
-    <t>AWS DevOps Engineer</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/aws-devops-engineer-internship-in-gurgaon-at-antino-labs-private-limited1706079460</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-oxen-farm-solutions-private-limited1706009347</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/wordpress-development-part-time-job-internship-at-delhi-in-anjesh-find-nearbest-professionals-llp1706019072</t>
-  </si>
-  <si>
-    <t>₹ 10,000-15,000 /month</t>
-  </si>
-  <si>
-    <t>YouTube Anchor And Webinar Analytics</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/youtube-anchor-and-webinar-analytics-internship-in-multiple-locations-at-analytics-jobs1706012538</t>
-  </si>
-  <si>
-    <t>Ghaziabad</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence &amp; Machine Learning</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/artificial-intelligence-machine-learning-internship-in-gurgaon-at-natwest-group1706012450</t>
-  </si>
-  <si>
-    <t>₹ 45,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-gurgaon-at-factacyai1706005053</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-antino-labs-private-limited1706002367</t>
-  </si>
-  <si>
-    <t>.NET Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/net-development-internship-in-delhi-at-isourse1705994224</t>
-  </si>
-  <si>
-    <t>Product Management</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/product-management-internship-in-delhi-at-stirring-minds1705990145</t>
-  </si>
-  <si>
-    <t>₹ 10,000-20,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-stirring-minds1705989855</t>
-  </si>
-  <si>
-    <t>₹ 8,000-10,000 /month</t>
-  </si>
-  <si>
-    <t>Software Development Engineering (Web)</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-development-engineering-web-internship-in-gurgaon-at-internshala1705992252</t>
-  </si>
-  <si>
-    <t>₹ 18,000 /month</t>
-  </si>
-  <si>
-    <t>Software Development Engineering (Android)</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-development-engineering-android-internship-in-gurgaon-at-internshala1705992046</t>
-  </si>
-  <si>
-    <t>Node.js Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/nodejs-development-internship-in-gurgaon-bangalore-at-antino-labs-private-limited1705991009</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-stirring-minds1705990557</t>
-  </si>
-  <si>
-    <t>₹ 7,000-8,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/wordpress-development-internship-in-delhi-at-stirring-minds1705989710</t>
-  </si>
-  <si>
-    <t>₹ 7,000-10,000 /month</t>
-  </si>
-  <si>
-    <t>Software Testing</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-testing-internship-in-delhi-at-iitm-pravartak1705984549</t>
-  </si>
-  <si>
-    <t>Flutter Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/flutter-development-internship-in-gurgaon-at-postfaym-technologies-private-limited1705937329</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-faith-app1705917808</t>
-  </si>
-  <si>
-    <t>7 days ago</t>
-  </si>
-  <si>
-    <t>Manual Testing</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/manual-testing-internship-in-noida-at-meetri1705897362</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence (AI)</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-part-time-job-internship-at-multiple-locations-in-avaari1705675076</t>
-  </si>
-  <si>
-    <t>Ludhiana</t>
-  </si>
-  <si>
     <t>₹ 25,000 /month</t>
   </si>
   <si>
-    <t>1 week ago</t>
-  </si>
-  <si>
     <t>https://internshala.com/internship/detail/mobile-app-development-part-time-job-internship-at-multiple-locations-in-avaari1705675007</t>
   </si>
   <si>
-    <t>Jammu</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/machine-learning-part-time-job-internship-at-multiple-locations-in-avaari1705674973</t>
   </si>
   <si>
-    <t>Kochi</t>
-  </si>
-  <si>
     <t>Blockchain Development</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/blockchain-development-part-time-job-internship-at-multiple-locations-in-avaari1705674952</t>
   </si>
   <si>
-    <t>Bhubaneswar</t>
-  </si>
-  <si>
-    <t>Android App Development</t>
+    <t>Andhra Pradesh</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-ensenar-technologies-private-limited1705665533</t>
@@ -379,19 +535,13 @@
     <t>https://internshala.com/internship/detail/website-wordpress-design-internship-in-multiple-locations-at-ally-digital-media1705653113</t>
   </si>
   <si>
-    <t>Kalyan</t>
-  </si>
-  <si>
     <t>₹ 5,000-8,000 /month</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/artificial-intelligence-ai-part-time-job-internship-at-multiple-locations-in-shubh-international1705643198</t>
   </si>
   <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-gurgaon-at-antino-labs-private-limited1705642067</t>
+    <t>2 weeks ago</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/full-stack-development-internship-in-gurgaon-at-curefy-ai1705408145</t>
@@ -400,112 +550,19 @@
     <t>https://internshala.com/internship/detail/web-development-internship-in-multiple-locations-at-shubh-international1705643208</t>
   </si>
   <si>
-    <t>Bangarapet</t>
+    <t>Ahmedabad</t>
   </si>
   <si>
     <t>₹ 16,000 /month</t>
   </si>
   <si>
-    <t>https://internshala.com/internship/detail/php-development-internship-in-gurgaon-at-antino-labs-private-limited1705642079</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-softsolvate1705589606</t>
-  </si>
-  <si>
-    <t>₹ 4,000-7,000 /month</t>
-  </si>
-  <si>
-    <t>Quality Assurance</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/quality-assurance-internship-in-gurgaon-at-limeroad1705593131</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-gurgaon-at-cypheredge-private-limited1705587029</t>
-  </si>
-  <si>
-    <t>₹ 2,000-5,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/flutter-development-internship-in-delhi-gurgaon-at-antino-labs-private-limited1705578490</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-nexgen-innovators-it-services-private-limited1705555614</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/blockchain-development-part-time-job-internship-at-multiple-locations-in-buddha-education-association-incorporation1705499357</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-part-time-job-internship-at-multiple-locations-in-buddha-education-association-incorporation1705499422</t>
-  </si>
-  <si>
-    <t>Indore</t>
-  </si>
-  <si>
-    <t>₹ 35,000 /month</t>
-  </si>
-  <si>
-    <t>Backend Engineering</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/backend-engineering-internship-in-delhi-at-essi-integrated-technologies1705514462</t>
-  </si>
-  <si>
-    <t>₹ 30,000 /month</t>
-  </si>
-  <si>
-    <t>Frontend Engineering</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/frontend-engineering-internship-in-delhi-at-essi-integrated-technologies1705515031</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-internship-in-multiple-locations-at-buddha-education-association-incorporation1705499459</t>
-  </si>
-  <si>
-    <t>JavaScript &amp; Google AppScript Development (Full Stack Development)</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/javascript-google-appscript-development-full-stack-development-internship-in-delhi-at-bootstrap-digital-solutions1705516031</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-gurgaon-at-uniqgrid1704853065</t>
-  </si>
-  <si>
-    <t>Embedded Software</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/embedded-software-internship-in-gurgaon-at-uniqgrid1704852837</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-star-production1705464810</t>
-  </si>
-  <si>
-    <t>₹ 3,000-7,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-multiple-locations-at-buddha-education-association-incorporation1705410394</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-part-time-job-internship-at-multiple-locations-in-buddha-education-association-incorporation1705410223</t>
-  </si>
-  <si>
-    <t>Website Support - Resizing</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/website-support-resizing-internship-in-delhi-at-growify-digital1705407136</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/flutter-development-internship-in-noida-at-tsaw-drones1705398897</t>
-  </si>
-  <si>
-    <t>₹ 6,000 /month</t>
-  </si>
-  <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-development-internship-in-delhi-at-indika-ai-private-limited1705338483</t>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/computer-vision-internship-in-delhi-at-wobot-intelligence-private-limited1705048016</t>
+  </si>
+  <si>
+    <t>₹ 12,500 /month</t>
   </si>
   <si>
     <t>Front End Development</t>
@@ -520,40 +577,10 @@
     <t>5 Months</t>
   </si>
   <si>
-    <t>2 weeks ago</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-gurgaon-at-uniqgrid1704852716</t>
+    <t>3 weeks ago</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/web-development-part-time-job-internship-at-delhi-gurgaon-in-a-g-strategic-management-and-engineering-solutions-private-limited1704713251</t>
-  </si>
-  <si>
-    <t>₹ 5,000-10,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-w3dev1704447510</t>
-  </si>
-  <si>
-    <t>₹ 5,000-7,000 /month</t>
-  </si>
-  <si>
-    <t>3 weeks ago</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-noida-at-w3dev1704447446</t>
-  </si>
-  <si>
-    <t>₹ 11,000-13,000 /month</t>
-  </si>
-  <si>
-    <t>JavaScript Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/javascript-development-internship-in-noida-at-w3dev1704447419</t>
-  </si>
-  <si>
-    <t>₹ 10,000-12,000 /month</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/flutter-development-internship-in-gurgaon-at-internshala1704350523</t>
@@ -945,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F85"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,36 +1003,36 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,116 +1043,116 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,16 +1163,16 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,136 +1183,136 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,393 +1323,393 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
         <v>100</v>
@@ -1696,13 +1723,13 @@
         <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>100</v>
@@ -1716,836 +1743,936 @@
         <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
         <v>110</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
         <v>24</v>
       </c>
-      <c r="B56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
         <v>161</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
         <v>163</v>
       </c>
-      <c r="B70" t="s">
-        <v>164</v>
-      </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
         <v>165</v>
       </c>
-      <c r="B71" t="s">
-        <v>166</v>
-      </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
         <v>183</v>
       </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" t="s">
-        <v>185</v>
-      </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Internship.xlsx
+++ b/Internship.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="200">
   <si>
     <t>Title</t>
   </si>
@@ -31,37 +31,229 @@
     <t>Posted Time</t>
   </si>
   <si>
+    <t>Mobile App Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-delhi-at-genelek-technologies-private-limited1706870940</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>₹ 5,000-15,000 /month</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>Few hours ago</t>
+  </si>
+  <si>
+    <t>PHP Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-nexgen-innovators-it-services-private-limited1706868553</t>
+  </si>
+  <si>
+    <t>₹ 5,000 /month</t>
+  </si>
+  <si>
+    <t>iOS App Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-noida-at-w3dev1706774614</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>₹ 11,000-13,000 /month</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>1 day ago</t>
+  </si>
+  <si>
+    <t>Android App Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-w3dev1706774552</t>
+  </si>
+  <si>
+    <t>₹ 5,000-7,000 /month</t>
+  </si>
+  <si>
+    <t>Flutter Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/flutter-development-internship-in-multiple-locations-at-antino-labs-private-limited1706779840</t>
+  </si>
+  <si>
+    <t>₹ 15,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-gurgaon-at-antino-labs-private-limited1705983796</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>1 week ago</t>
+  </si>
+  <si>
+    <t>WordPress Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/wordpress-development-internship-in-delhi-at-9heaven1706674503</t>
+  </si>
+  <si>
+    <t>2 days ago</t>
+  </si>
+  <si>
+    <t>Software Testing &amp; Quality Assurance</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-testing-quality-assurance-internship-in-noida-at-w3dev1706181645</t>
+  </si>
+  <si>
+    <t>₹ 2,500-5,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/flutter-development-internship-in-multiple-locations-at-app-successor1706880390</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>₹ 10,000-15,000 /month</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/machine-learning-internship-in-noida-at-mindmap-consulting1706869298</t>
+  </si>
+  <si>
+    <t>₹ 10,000 /month</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>https://internshala.comN/A</t>
   </si>
   <si>
-    <t>iOS App Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-noida-at-w3dev1706774614</t>
-  </si>
-  <si>
-    <t>Noida</t>
-  </si>
-  <si>
-    <t>₹ 11,000-13,000 /month</t>
-  </si>
-  <si>
-    <t>6 Months</t>
+    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-xcrino-business-solutions1706866392</t>
+  </si>
+  <si>
+    <t>₹ 5,000-10,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-delhi-at-mindgeeks-tech-llp1706862998</t>
+  </si>
+  <si>
+    <t>₹ 8,000-12,000 /month</t>
+  </si>
+  <si>
+    <t>Python Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/python-development-internship-in-gurgaon-at-bluetide-solutions-private-limited1706867493</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-synapse-valuetech-private-limited1706857246</t>
+  </si>
+  <si>
+    <t>QA Testing</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/qa-testing-internship-in-gurgaon-at-syansoft-technologies-private-limited1706854574</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-sukrit-varma1706846031</t>
   </si>
   <si>
     <t>Today</t>
   </si>
   <si>
-    <t>Android App Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-w3dev1706774552</t>
-  </si>
-  <si>
-    <t>₹ 5,000-7,000 /month</t>
+    <t>Desktop Support Engineer Intern</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/desktop-support-engineer-intern-internship-in-delhi-at-s-p-solutions-point-private-limited1706792876</t>
+  </si>
+  <si>
+    <t>₹ 8,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-multiple-locations-at-buddha-education-association-incorporation1706789374</t>
+  </si>
+  <si>
+    <t>₹ 30,000 /month</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-multiple-locations-at-sbnri-simplifying-banking-for-nris1706779873</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-web-development-internship-in-multiple-locations-at-buddha-education-association-incorporation1706785521</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>₹ 20,000 /month</t>
+  </si>
+  <si>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>Python Automation</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/python-automation-internship-in-gurgaon-at-natwest-group1706779337</t>
+  </si>
+  <si>
+    <t>₹ 45,000 /month</t>
+  </si>
+  <si>
+    <t>QA Engineering</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/qa-engineering-internship-in-delhi-at-ayurveda-house-private-limited1706776015</t>
+  </si>
+  <si>
+    <t>₹ 10,000-12,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-delhi-at-growagro1706768576</t>
+  </si>
+  <si>
+    <t>₹ 10,000-20,000 /month</t>
+  </si>
+  <si>
+    <t>JavaScript Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/javascript-development-internship-in-noida-at-w3dev1706774657</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-delhi-at-myupchar1706764437</t>
+  </si>
+  <si>
+    <t>Reactjs Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/reactjs-development-internship-in-delhi-at-one-card-solution-pvt-limited1706768308</t>
+  </si>
+  <si>
+    <t>₹ 6,000-10,000 /month</t>
   </si>
   <si>
     <t>AWS DevOps Engineer</t>
@@ -70,523 +262,346 @@
     <t>https://internshala.com/internship/detail/aws-devops-engineer-internship-in-delhi-at-agentinsights1706766575</t>
   </si>
   <si>
-    <t>Delhi</t>
-  </si>
-  <si>
     <t>₹ 6,000-8,000 /month</t>
   </si>
   <si>
-    <t>1 day ago</t>
-  </si>
-  <si>
-    <t>Flutter Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/flutter-development-internship-in-multiple-locations-at-antino-labs-private-limited1706779840</t>
-  </si>
-  <si>
-    <t>Gurgaon</t>
-  </si>
-  <si>
-    <t>₹ 15,000 /month</t>
-  </si>
-  <si>
-    <t>PHP Development</t>
+    <t>https://internshala.com/internship/detail/part-time-wordpress-development-internship-in-delhi-at-anjesh-find-nearbest-professionals-llp1706756040</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-watrana-traction-private-limited1706704437</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-development-internship-in-delhi-at-indika-ai-private-limited1706684265</t>
+  </si>
+  <si>
+    <t>₹ 8,000-10,000 /month</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-cyber-security-internship-in-multiple-locations-at-prime-infoserv-llp1706683141</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Node.js Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/nodejs-development-internship-in-gurgaon-at-warewe-consultancy-private-limited1706680284</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-gurgaon-at-antino-labs-private-limited1706678320</t>
+  </si>
+  <si>
+    <t>Nodejs Typescript Developer</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/nodejs-typescript-developer-internship-in-delhi-at-arakooai1706648661</t>
   </si>
   <si>
     <t>https://internshala.com/internship/detail/php-development-internship-in-gurgaon-at-antino-labs-private-limited1706627680</t>
   </si>
   <si>
-    <t>2 days ago</t>
-  </si>
-  <si>
-    <t>WordPress Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/wordpress-development-internship-in-delhi-at-9heaven1706674503</t>
-  </si>
-  <si>
-    <t>₹ 5,000 /month</t>
-  </si>
-  <si>
-    <t>3 Months</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/ios-app-development-internship-in-gurgaon-at-antino-labs-private-limited1705983796</t>
-  </si>
-  <si>
-    <t>1 week ago</t>
-  </si>
-  <si>
-    <t>Software Testing &amp; Quality Assurance</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-testing-quality-assurance-internship-in-noida-at-w3dev1706181645</t>
-  </si>
-  <si>
-    <t>₹ 2,500-5,000 /month</t>
-  </si>
-  <si>
-    <t>7 days ago</t>
-  </si>
-  <si>
-    <t>QA Testing</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/qa-testing-internship-in-gurgaon-at-syansoft-technologies-private-limited1706854574</t>
-  </si>
-  <si>
-    <t>₹ 10,000 /month</t>
-  </si>
-  <si>
-    <t>Just now</t>
-  </si>
-  <si>
-    <t>Web Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-sukrit-varma1706846031</t>
-  </si>
-  <si>
-    <t>Desktop Support Engineer Intern</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/desktop-support-engineer-intern-internship-in-delhi-at-s-p-solutions-point-private-limited1706792876</t>
-  </si>
-  <si>
-    <t>₹ 8,000 /month</t>
-  </si>
-  <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-development-internship-in-noida-at-crunchy-fashion-private-limited1706789443</t>
-  </si>
-  <si>
-    <t>₹ 8,000-12,000 /month</t>
-  </si>
-  <si>
-    <t>Mobile App Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-multiple-locations-at-buddha-education-association-incorporation1706789374</t>
-  </si>
-  <si>
-    <t>Amritsar</t>
-  </si>
-  <si>
-    <t>₹ 30,000 /month</t>
-  </si>
-  <si>
-    <t>2 Months</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-multiple-locations-at-sbnri-simplifying-banking-for-nris1706779873</t>
-  </si>
-  <si>
-    <t>₹ 10,000-15,000 /month</t>
-  </si>
-  <si>
-    <t>Website Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-website-development-internship-in-delhi-at-british-lingua1706785560</t>
+    <t>3 days ago</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/aws-devops-engineer-internship-in-gurgaon-at-antino-labs-private-limited1706627441</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-delhi-at-oclamecom1706600908</t>
+  </si>
+  <si>
+    <t>₹ 2,000 /month</t>
+  </si>
+  <si>
+    <t>Game Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-game-development-internship-in-multiple-locations-at-youth-buzz-educom-llp1706589576</t>
+  </si>
+  <si>
+    <t>Greater Noida</t>
+  </si>
+  <si>
+    <t>₹ 3,500-6,000 /month</t>
+  </si>
+  <si>
+    <t>AI Python Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/ai-python-development-internship-in-delhi-at-intellisqr1706592682</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-adg-online-solutions-private-limited1706516353</t>
+  </si>
+  <si>
+    <t>₹ 10,000-18,000 /month</t>
+  </si>
+  <si>
+    <t>4 days ago</t>
+  </si>
+  <si>
+    <t>Backend Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/backend-development-internship-in-gurgaon-at-wijungle-by-httpcart1706501690</t>
+  </si>
+  <si>
+    <t>₹ 30,000-40,000 /month</t>
+  </si>
+  <si>
+    <t>C++ Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/c-development-internship-in-gurgaon-at-wijungle-by-httpcart1706501460</t>
+  </si>
+  <si>
+    <t>Full Stack Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-multiple-locations-at-postfaym-technologies-private-limited1706183251</t>
+  </si>
+  <si>
+    <t>Image Editor</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/image-editor-internship-in-noida-at-visible-gain1706170136</t>
+  </si>
+  <si>
+    <t>₹ 7,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-eupheus-learning1706169292</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-game-development-internship-in-multiple-locations-at-mentorboxx1706167551</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Angular.js Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/angularjs-development-internship-in-gurgaon-at-vdoit-technologies-private-limited1706166443</t>
+  </si>
+  <si>
+    <t>Asp.net Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/aspnet-development-internship-in-multiple-locations-at-isourse1706158385</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-multiple-locations-at-intellisqr1706099893</t>
+  </si>
+  <si>
+    <t>₹ 12,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/part-time-wordpress-development-internship-in-delhi-at-405-gyp-aggregate-co1706084967</t>
+  </si>
+  <si>
+    <t>PHP &amp; Laravel Developers</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/php-laravel-developers-internship-in-multiple-locations-at-radiant-tech-solutions1706081395</t>
+  </si>
+  <si>
+    <t>Quality Analyst</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-delhi-at-kidswear-fabricators-private-limited1706079654</t>
+  </si>
+  <si>
+    <t>₹ 10,000 /month + Incentives</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-oxen-farm-solutions-private-limited1706009347</t>
+  </si>
+  <si>
+    <t>YouTube Anchor And Webinar Analytics</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/youtube-anchor-and-webinar-analytics-internship-in-multiple-locations-at-analytics-jobs1706012538</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence &amp; Machine Learning</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/artificial-intelligence-machine-learning-internship-in-gurgaon-at-natwest-group1706012450</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-gurgaon-at-factacyai1706005053</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-antino-labs-private-limited1706002367</t>
+  </si>
+  <si>
+    <t>.NET Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/net-development-internship-in-delhi-at-isourse1705994224</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/product-management-internship-in-delhi-at-stirring-minds1705990145</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-stirring-minds1705989855</t>
+  </si>
+  <si>
+    <t>Software Development Engineering (Web)</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-development-engineering-web-internship-in-gurgaon-at-internshala1705992252</t>
+  </si>
+  <si>
+    <t>₹ 18,000 /month</t>
+  </si>
+  <si>
+    <t>Software Development Engineering (Android)</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-development-engineering-android-internship-in-gurgaon-at-internshala1705992046</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/nodejs-development-internship-in-gurgaon-bangalore-at-antino-labs-private-limited1705991009</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-stirring-minds1705990557</t>
+  </si>
+  <si>
+    <t>₹ 7,000-8,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/wordpress-development-internship-in-delhi-at-stirring-minds1705989710</t>
+  </si>
+  <si>
+    <t>₹ 7,000-10,000 /month</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/software-testing-internship-in-delhi-at-iitm-pravartak1705984549</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-faith-app1705917808</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-noida-at-storeshoppy-online-services-private-limited1705769509</t>
+  </si>
+  <si>
+    <t>₹ 5,000-8,000 /month</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (AI)</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-part-time-job-internship-at-multiple-locations-in-avaari1705675076</t>
+  </si>
+  <si>
+    <t>₹ 25,000 /month</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/mobile-app-development-part-time-job-internship-at-multiple-locations-in-avaari1705675007</t>
+  </si>
+  <si>
+    <t>Jammu</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/machine-learning-part-time-job-internship-at-multiple-locations-in-avaari1705674973</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Blockchain Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/blockchain-development-part-time-job-internship-at-multiple-locations-in-avaari1705674952</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-ensenar-technologies-private-limited1705665533</t>
+  </si>
+  <si>
+    <t>2 weeks ago</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-internship-in-delhi-at-uboard-india-limited1705660152</t>
+  </si>
+  <si>
+    <t>4 Months</t>
+  </si>
+  <si>
+    <t>Website/WordPress Design</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/website-wordpress-design-internship-in-multiple-locations-at-ally-digital-media1705653113</t>
+  </si>
+  <si>
+    <t>Kalyan</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-part-time-job-internship-at-multiple-locations-in-shubh-international1705643198</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-gurgaon-at-curefy-ai1705408145</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-internship-in-multiple-locations-at-shubh-international1705643208</t>
+  </si>
+  <si>
+    <t>₹ 16,000 /month</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/computer-vision-internship-in-delhi-at-wobot-intelligence-private-limited1705048016</t>
+  </si>
+  <si>
+    <t>₹ 12,500 /month</t>
+  </si>
+  <si>
+    <t>3 weeks ago</t>
+  </si>
+  <si>
+    <t>Front End Development</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/front-end-development-internship-in-gurgaon-at-wijungle-by-httpcart1704812339</t>
+  </si>
+  <si>
+    <t>₹ 40,000-45,000 /month</t>
+  </si>
+  <si>
+    <t>5 Months</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/web-development-part-time-job-internship-at-delhi-gurgaon-in-a-g-strategic-management-and-engineering-solutions-private-limited1704713251</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/flutter-development-internship-in-gurgaon-at-internshala1704350523</t>
+  </si>
+  <si>
+    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-jivatu-technologies-private-limited1703788434</t>
   </si>
   <si>
     <t>₹ 6,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-web-development-internship-in-multiple-locations-at-buddha-education-association-incorporation1706785521</t>
-  </si>
-  <si>
-    <t>Nashik</t>
-  </si>
-  <si>
-    <t>₹ 20,000 /month</t>
-  </si>
-  <si>
-    <t>1 Month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-doodle-over-poodle-pvt-ltd1706776442</t>
-  </si>
-  <si>
-    <t>₹ 8,000-10,000 /month</t>
-  </si>
-  <si>
-    <t>Python Automation</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/python-automation-internship-in-gurgaon-at-natwest-group1706779337</t>
-  </si>
-  <si>
-    <t>₹ 45,000 /month</t>
-  </si>
-  <si>
-    <t>QA Engineering</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/qa-engineering-internship-in-delhi-at-ayurveda-house-private-limited1706776015</t>
-  </si>
-  <si>
-    <t>₹ 10,000-12,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-delhi-at-growagro1706768576</t>
-  </si>
-  <si>
-    <t>₹ 10,000-20,000 /month</t>
-  </si>
-  <si>
-    <t>JavaScript Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/javascript-development-internship-in-noida-at-w3dev1706774657</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-delhi-at-myupchar1706764437</t>
-  </si>
-  <si>
-    <t>Reactjs Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/reactjs-development-internship-in-delhi-at-one-card-solution-pvt-limited1706768308</t>
-  </si>
-  <si>
-    <t>₹ 6,000-10,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-wordpress-development-internship-in-delhi-at-anjesh-find-nearbest-professionals-llp1706756040</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-javascript-development-internship-in-noida-at-tynatech-ingenious-private-limited1706721681</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-watrana-traction-private-limited1706704437</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-development-internship-in-delhi-at-indika-ai-private-limited1706684265</t>
-  </si>
-  <si>
-    <t>Cyber Security</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-cyber-security-internship-in-multiple-locations-at-prime-infoserv-llp1706683141</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Node.js Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/nodejs-development-internship-in-gurgaon-at-warewe-consultancy-private-limited1706680284</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-gurgaon-at-antino-labs-private-limited1706678320</t>
-  </si>
-  <si>
-    <t>Nodejs Typescript Developer</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/nodejs-typescript-developer-internship-in-delhi-at-arakooai1706648661</t>
-  </si>
-  <si>
-    <t>₹ 5,000-10,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/aws-devops-engineer-internship-in-gurgaon-at-antino-labs-private-limited1706627441</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-delhi-at-oclamecom1706600908</t>
-  </si>
-  <si>
-    <t>₹ 2,000 /month</t>
-  </si>
-  <si>
-    <t>Game Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-game-development-internship-in-multiple-locations-at-youth-buzz-educom-llp1706589576</t>
-  </si>
-  <si>
-    <t>₹ 3,500-6,000 /month</t>
-  </si>
-  <si>
-    <t>3 days ago</t>
-  </si>
-  <si>
-    <t>AI Python Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/ai-python-development-internship-in-delhi-at-intellisqr1706592682</t>
-  </si>
-  <si>
-    <t>Python/Django Back-end</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-python-django-back-end-internship-in-noida-at-negbuy1706591460</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/php-development-internship-in-delhi-at-adg-online-solutions-private-limited1706516353</t>
-  </si>
-  <si>
-    <t>₹ 10,000-18,000 /month</t>
-  </si>
-  <si>
-    <t>Backend Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/backend-development-internship-in-gurgaon-at-wijungle-by-httpcart1706501690</t>
-  </si>
-  <si>
-    <t>₹ 30,000-40,000 /month</t>
-  </si>
-  <si>
-    <t>4 days ago</t>
-  </si>
-  <si>
-    <t>C++ Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/c-development-internship-in-gurgaon-at-wijungle-by-httpcart1706501460</t>
-  </si>
-  <si>
-    <t>Full Stack Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-multiple-locations-at-postfaym-technologies-private-limited1706183251</t>
-  </si>
-  <si>
-    <t>Image Editor</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/image-editor-internship-in-noida-at-visible-gain1706170136</t>
-  </si>
-  <si>
-    <t>₹ 7,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-eupheus-learning1706169292</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-game-development-internship-in-multiple-locations-at-mentorboxx1706167551</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>Angular.js Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/angularjs-development-internship-in-gurgaon-at-vdoit-technologies-private-limited1706166443</t>
-  </si>
-  <si>
-    <t>Asp.net Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/aspnet-development-internship-in-multiple-locations-at-isourse1706158385</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-multiple-locations-at-intellisqr1706099893</t>
-  </si>
-  <si>
-    <t>₹ 12,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/part-time-wordpress-development-internship-in-delhi-at-405-gyp-aggregate-co1706084967</t>
-  </si>
-  <si>
-    <t>PHP &amp; Laravel Developers</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/php-laravel-developers-internship-in-multiple-locations-at-radiant-tech-solutions1706081395</t>
-  </si>
-  <si>
-    <t>Quality Analyst</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-delhi-at-kidswear-fabricators-private-limited1706079654</t>
-  </si>
-  <si>
-    <t>₹ 10,000 /month + Incentives</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-oxen-farm-solutions-private-limited1706009347</t>
-  </si>
-  <si>
-    <t>YouTube Anchor And Webinar Analytics</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/youtube-anchor-and-webinar-analytics-internship-in-multiple-locations-at-analytics-jobs1706012538</t>
-  </si>
-  <si>
-    <t>Faridabad</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence &amp; Machine Learning</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/artificial-intelligence-machine-learning-internship-in-gurgaon-at-natwest-group1706012450</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-internship-in-gurgaon-at-factacyai1706005053</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/quality-analyst-internship-in-gurgaon-at-antino-labs-private-limited1706002367</t>
-  </si>
-  <si>
-    <t>.NET Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/net-development-internship-in-delhi-at-isourse1705994224</t>
-  </si>
-  <si>
-    <t>Product Management</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/product-management-internship-in-delhi-at-stirring-minds1705990145</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-stirring-minds1705989855</t>
-  </si>
-  <si>
-    <t>Software Development Engineering (Web)</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-development-engineering-web-internship-in-gurgaon-at-internshala1705992252</t>
-  </si>
-  <si>
-    <t>₹ 18,000 /month</t>
-  </si>
-  <si>
-    <t>Software Development Engineering (Android)</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-development-engineering-android-internship-in-gurgaon-at-internshala1705992046</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/nodejs-development-internship-in-gurgaon-bangalore-at-antino-labs-private-limited1705991009</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-delhi-at-stirring-minds1705990557</t>
-  </si>
-  <si>
-    <t>₹ 7,000-8,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/wordpress-development-internship-in-delhi-at-stirring-minds1705989710</t>
-  </si>
-  <si>
-    <t>₹ 7,000-10,000 /month</t>
-  </si>
-  <si>
-    <t>Software Testing</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/software-testing-internship-in-delhi-at-iitm-pravartak1705984549</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-delhi-at-faith-app1705917808</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence (AI)</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-part-time-job-internship-at-multiple-locations-in-avaari1705675076</t>
-  </si>
-  <si>
-    <t>Raipur</t>
-  </si>
-  <si>
-    <t>₹ 25,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/mobile-app-development-part-time-job-internship-at-multiple-locations-in-avaari1705675007</t>
-  </si>
-  <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/machine-learning-part-time-job-internship-at-multiple-locations-in-avaari1705674973</t>
-  </si>
-  <si>
-    <t>Blockchain Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/blockchain-development-part-time-job-internship-at-multiple-locations-in-avaari1705674952</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-ensenar-technologies-private-limited1705665533</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-internship-in-delhi-at-uboard-india-limited1705660152</t>
-  </si>
-  <si>
-    <t>4 Months</t>
-  </si>
-  <si>
-    <t>Website/WordPress Design</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/website-wordpress-design-internship-in-multiple-locations-at-ally-digital-media1705653113</t>
-  </si>
-  <si>
-    <t>₹ 5,000-8,000 /month</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/artificial-intelligence-ai-part-time-job-internship-at-multiple-locations-in-shubh-international1705643198</t>
-  </si>
-  <si>
-    <t>2 weeks ago</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/full-stack-development-internship-in-gurgaon-at-curefy-ai1705408145</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-internship-in-multiple-locations-at-shubh-international1705643208</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>₹ 16,000 /month</t>
-  </si>
-  <si>
-    <t>Computer Vision</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/computer-vision-internship-in-delhi-at-wobot-intelligence-private-limited1705048016</t>
-  </si>
-  <si>
-    <t>₹ 12,500 /month</t>
-  </si>
-  <si>
-    <t>Front End Development</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/front-end-development-internship-in-gurgaon-at-wijungle-by-httpcart1704812339</t>
-  </si>
-  <si>
-    <t>₹ 40,000-45,000 /month</t>
-  </si>
-  <si>
-    <t>5 Months</t>
-  </si>
-  <si>
-    <t>3 weeks ago</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/web-development-part-time-job-internship-at-delhi-gurgaon-in-a-g-strategic-management-and-engineering-solutions-private-limited1704713251</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/flutter-development-internship-in-gurgaon-at-internshala1704350523</t>
-  </si>
-  <si>
-    <t>https://internshala.com/internship/detail/android-app-development-internship-in-noida-at-jivatu-technologies-private-limited1703788434</t>
   </si>
   <si>
     <t>Product Testing</t>
@@ -972,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F88"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,176 +1018,176 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,33 +1198,33 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
@@ -1217,42 +1232,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,553 +1278,553 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
         <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
       <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
         <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
         <v>97</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
         <v>10</v>
       </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
         <v>107</v>
       </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
         <v>110</v>
@@ -1817,382 +1832,382 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
         <v>113</v>
       </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
-      </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
         <v>115</v>
       </c>
-      <c r="B44" t="s">
-        <v>116</v>
-      </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>119</v>
       </c>
       <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
         <v>120</v>
       </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
         <v>123</v>
       </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
         <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
         <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
         <v>128</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
         <v>129</v>
       </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>96</v>
-      </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
         <v>130</v>
       </c>
-      <c r="B52" t="s">
-        <v>131</v>
-      </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
         <v>134</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
         <v>135</v>
       </c>
-      <c r="C55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
         <v>139</v>
       </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="B60" t="s">
-        <v>144</v>
-      </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
         <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2203,136 +2218,136 @@
         <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
         <v>151</v>
       </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>25</v>
-      </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
         <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
         <v>156</v>
       </c>
-      <c r="B67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" t="s">
-        <v>25</v>
-      </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
         <v>158</v>
       </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" t="s">
-        <v>126</v>
-      </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2343,181 +2358,181 @@
         <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
         <v>166</v>
       </c>
-      <c r="B72" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" t="s">
-        <v>63</v>
-      </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
         <v>170</v>
       </c>
-      <c r="C74" t="s">
-        <v>19</v>
-      </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" t="s">
         <v>172</v>
       </c>
-      <c r="B75" t="s">
-        <v>173</v>
-      </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="F77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
         <v>178</v>
@@ -2526,90 +2541,90 @@
         <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
         <v>181</v>
       </c>
-      <c r="B79" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" t="s">
-        <v>19</v>
-      </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F81" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
         <v>188</v>
@@ -2617,19 +2632,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
         <v>191</v>
       </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>60</v>
-      </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
         <v>188</v>
@@ -2637,19 +2652,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
         <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
         <v>188</v>
@@ -2657,22 +2672,82 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
